--- a/docs/System Requirements.xlsx
+++ b/docs/System Requirements.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="103">
   <si>
     <t>Unique ID</t>
   </si>
@@ -235,7 +235,7 @@
     <t>UI-Game Chat</t>
   </si>
   <si>
-    <t>Messaging shall be visible to all players simultanously</t>
+    <t>Messaging shall be visible to all players simultaneously</t>
   </si>
   <si>
     <t>SREQ028</t>
@@ -271,7 +271,7 @@
     <t>SREQ032</t>
   </si>
   <si>
-    <t>players shall be put in a new game if a server is full or a match has begun</t>
+    <t>Players shall be put in a new game if a server is full or a match has begun</t>
   </si>
   <si>
     <t>SREQ033</t>
@@ -357,12 +357,36 @@
       <t>. This time is measured between when the last player joins the game, and the new word grid is transmitted to all of the players.</t>
     </r>
   </si>
+  <si>
+    <t>SREQ037</t>
+  </si>
+  <si>
+    <t>User will be given buttons to "Enter" the game or "Cancel" username creation</t>
+  </si>
+  <si>
+    <t>SREQ039</t>
+  </si>
+  <si>
+    <t>Valid words chosen by the player will be listed in the "Highlighting word" section</t>
+  </si>
+  <si>
+    <t>SREQ040</t>
+  </si>
+  <si>
+    <t>Scores of all players will be shown at all times throughout the game on all player screens</t>
+  </si>
+  <si>
+    <t>SREQ041</t>
+  </si>
+  <si>
+    <t>All players and their scores will be listed on the leaderboard screen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -385,11 +409,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="LatoWeb"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -411,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -439,7 +458,6 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1311,8 +1329,64 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4"/>
-      <c r="F38" s="9"/>
+      <c r="A38" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/docs/System Requirements.xlsx
+++ b/docs/System Requirements.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="118">
   <si>
     <t>Unique ID</t>
   </si>
@@ -40,6 +43,9 @@
     <t>UI-Login Screen</t>
   </si>
   <si>
+    <t>html/index.html</t>
+  </si>
+  <si>
     <t>Players will first be met with the login screen on entry into the website</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
     <t>UREQ004</t>
   </si>
   <si>
+    <t>uta.cse3310.LoginManager.registerUser()</t>
+  </si>
+  <si>
     <t>Each player in TWSG will be identified by a Unique "Nick" or "Handle".</t>
   </si>
   <si>
@@ -73,6 +82,9 @@
     <t>UI-Lobby Screen</t>
   </si>
   <si>
+    <t>html/index.html and uta.cse3310.LoginManager.Usernames</t>
+  </si>
+  <si>
     <t>While waiting for a game to start, there will be a ‘lobby’ where waiting players gather and can see each other's names.</t>
   </si>
   <si>
@@ -118,6 +130,9 @@
     <t>UI-Game Screen</t>
   </si>
   <si>
+    <t>uta.cse3310.Grid.createGrid()</t>
+  </si>
+  <si>
     <t>There will be a word rectangular word grid</t>
   </si>
   <si>
@@ -133,12 +148,18 @@
     <t>UREQ005</t>
   </si>
   <si>
+    <t>uta.cse3310.WordList.getRandomWord()</t>
+  </si>
+  <si>
     <t>Only words from the provided word list will be used. Words will be &gt; 3 characters long</t>
   </si>
   <si>
     <t>SREQ013</t>
   </si>
   <si>
+    <t>uta.cse3310.Grid.populateGrid()</t>
+  </si>
+  <si>
     <t>Valid Words in the word grid can be reversed, horizontal, vertical, or diagonal</t>
   </si>
   <si>
@@ -172,12 +193,18 @@
     <t>SREQ018</t>
   </si>
   <si>
+    <t>uta.cse3310.Grid.colorIn()</t>
+  </si>
+  <si>
     <t>The letters in the word grid will be highlighted a players color when selected</t>
   </si>
   <si>
     <t>SREQ019</t>
   </si>
   <si>
+    <t>uta.cse3310.Scores.score</t>
+  </si>
+  <si>
     <t>A score will be kept for each player</t>
   </si>
   <si>
@@ -199,6 +226,9 @@
     <t>UREQ007</t>
   </si>
   <si>
+    <t>uta.cse3310.Leaderboard.generateLeaderboard()</t>
+  </si>
+  <si>
     <t>A "Player Leaderboard" will be provided</t>
   </si>
   <si>
@@ -208,6 +238,9 @@
     <t>UI-Leaderboard Screen</t>
   </si>
   <si>
+    <t>uta.cse3310.Game.leaderboard</t>
+  </si>
+  <si>
     <t>The "Player Leaderboard" will only be visible to players in a server</t>
   </si>
   <si>
@@ -226,6 +259,9 @@
     <t>UREQ008</t>
   </si>
   <si>
+    <t>uta.cse3310.Chat.addToChat()</t>
+  </si>
+  <si>
     <t>Messaging between all players will be provided,</t>
   </si>
   <si>
@@ -241,6 +277,9 @@
     <t>SREQ028</t>
   </si>
   <si>
+    <t>uta.cse3310.Message.sender</t>
+  </si>
+  <si>
     <t>A player's name will be paired with every message sent by the player</t>
   </si>
   <si>
@@ -259,6 +298,9 @@
     <t>Server</t>
   </si>
   <si>
+    <t>uta.cse3310.App</t>
+  </si>
+  <si>
     <t>The server will support 5 concurrent games.</t>
   </si>
   <si>
@@ -277,19 +319,26 @@
     <t>SREQ033</t>
   </si>
   <si>
+    <r>
+      <t/>
+    </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">The density of the word grid is defined as the number of characters in valid words divided by the size of the grid. </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>The initial word grid shall have a density of &gt; 0.67</t>
     </r>
@@ -299,18 +348,25 @@
   </si>
   <si>
     <r>
+      <t/>
+    </r>
+    <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">The number of words in the starting grid shall be at least 20% of each of the 4 orientations </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>(horizontal, vertical, diagonal down, diagonal up).</t>
     </r>
@@ -320,18 +376,25 @@
   </si>
   <si>
     <r>
+      <t/>
+    </r>
+    <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Filler characters shall be uniformly distributed. The characters used to fill in the grid shall contain an equal number</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (or as close as possible) number of each letter from A-Z.</t>
     </r>
@@ -341,18 +404,25 @@
   </si>
   <si>
     <r>
+      <t/>
+    </r>
+    <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>A new grid shall be created in less than 1 second</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>. This time is measured between when the last player joins the game, and the new word grid is transmitted to all of the players.</t>
     </r>
@@ -367,10 +437,16 @@
     <t>SREQ039</t>
   </si>
   <si>
-    <t>Valid words chosen by the player will be listed in the "Highlighting word" section</t>
+    <t>html/index.html and uta.cse.3310.Grid.foundWords</t>
+  </si>
+  <si>
+    <t>Valid words chosen by the player will be highlighted</t>
   </si>
   <si>
     <t>SREQ040</t>
+  </si>
+  <si>
+    <t>html/index.html and uta.cse.3310.Leaderboard.score</t>
   </si>
   <si>
     <t>Scores of all players will be shown at all times throughout the game on all player screens</t>
@@ -385,29 +461,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -415,70 +490,88 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -505,22 +598,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,157 +685,187 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.75"/>
-    <col customWidth="1" min="2" max="2" width="4.75"/>
-    <col customWidth="1" min="3" max="3" width="7.88"/>
-    <col customWidth="1" min="4" max="4" width="19.0"/>
-    <col customWidth="1" min="5" max="5" width="28.75"/>
-    <col customWidth="1" min="6" max="6" width="135.38"/>
+    <col min="1" max="1" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="4.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="54.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="135.4335714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,693 +885,743 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>67</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>12</v>
+        <v>84</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>88</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>12</v>
+        <v>84</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>90</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>93</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>12</v>
+        <v>93</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>97</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>12</v>
+        <v>93</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>87</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="s">
-        <v>89</v>
+        <v>12</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>91</v>
+        <v>12</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="4" t="s">
-        <v>102</v>
+        <v>73</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/System Requirements.xlsx
+++ b/docs/System Requirements.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimi\OneDrive\Documents\Courses\Fundamental of SWE\3310 Group project\cse3310_sp24_group_12\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7903C698-E690-4387-BE89-B41B94320D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="119">
   <si>
     <t>Unique ID</t>
   </si>
@@ -319,9 +325,6 @@
     <t>SREQ033</t>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -348,9 +351,6 @@
   </si>
   <si>
     <r>
-      <t/>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -375,9 +375,6 @@
     <t>SREQ035</t>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -404,9 +401,6 @@
   </si>
   <si>
     <r>
-      <t/>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -431,9 +425,6 @@
     <t>SREQ037</t>
   </si>
   <si>
-    <t>User will be given buttons to "Enter" the game or "Cancel" username creation</t>
-  </si>
-  <si>
     <t>SREQ039</t>
   </si>
   <si>
@@ -456,14 +447,19 @@
   </si>
   <si>
     <t>All players and their scores will be listed on the leaderboard screen</t>
+  </si>
+  <si>
+    <t>User will be given buttons to "Enter" the game</t>
+  </si>
+  <si>
+    <t>Removed-requirement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +480,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -494,7 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -515,16 +518,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,32 +535,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -568,10 +571,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -609,71 +612,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -701,7 +704,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -724,11 +727,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -737,13 +740,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -753,7 +756,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -762,7 +765,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -771,7 +774,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -779,10 +782,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -847,25 +850,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="5" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="4.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="54.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="135.4335714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="135.453125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -903,7 +908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -921,7 +926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -941,7 +946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -961,7 +966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -979,7 +984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -997,7 +1002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1015,7 +1020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -1035,7 +1040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1053,7 +1058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -1073,7 +1078,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -1093,7 +1098,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1113,7 +1118,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1131,7 +1136,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -1142,12 +1147,14 @@
       <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1165,7 +1172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -1183,7 +1190,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
@@ -1201,7 +1208,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -1219,7 +1226,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -1237,7 +1244,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -1255,7 +1262,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
@@ -1273,7 +1280,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -1293,7 +1300,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -1311,7 +1318,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
@@ -1329,7 +1336,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
@@ -1347,7 +1354,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -1367,7 +1374,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>83</v>
       </c>
@@ -1385,7 +1392,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>86</v>
       </c>
@@ -1403,7 +1410,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>89</v>
       </c>
@@ -1421,7 +1428,7 @@
         <v>90</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>91</v>
       </c>
@@ -1441,7 +1448,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>96</v>
       </c>
@@ -1459,7 +1466,7 @@
         <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>98</v>
       </c>
@@ -1477,7 +1484,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>100</v>
       </c>
@@ -1495,7 +1502,7 @@
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>102</v>
       </c>
@@ -1513,7 +1520,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>104</v>
       </c>
@@ -1531,7 +1538,7 @@
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>106</v>
       </c>
@@ -1549,14 +1556,13 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="4"/>
       <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
@@ -1564,30 +1570,29 @@
         <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>12</v>
@@ -1597,15 +1602,15 @@
         <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
@@ -1615,10 +1620,10 @@
         <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/docs/System Requirements.xlsx
+++ b/docs/System Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimi\OneDrive\Documents\Courses\Fundamental of SWE\3310 Group project\cse3310_sp24_group_12\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7903C698-E690-4387-BE89-B41B94320D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F002E7-4FAF-471C-8DC3-E87D7C8E9975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="121">
   <si>
     <t>Unique ID</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>SREQ005</t>
-  </si>
-  <si>
-    <t>Each player will be assigned a distinct color on entry into the lobby</t>
   </si>
   <si>
     <t>SREQ006</t>
@@ -453,6 +450,15 @@
   </si>
   <si>
     <t>Removed-requirement</t>
+  </si>
+  <si>
+    <t>Each player will be assigned a distinct color on entry into the game</t>
+  </si>
+  <si>
+    <t>SREQ042</t>
+  </si>
+  <si>
+    <t>User unique "Nick" or "Handle" will be &gt; length 2</t>
   </si>
 </sst>
 </file>
@@ -854,10 +860,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="73" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -981,12 +987,12 @@
         <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -999,12 +1005,12 @@
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -1017,18 +1023,18 @@
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
@@ -1037,12 +1043,12 @@
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -1055,510 +1061,510 @@
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>12</v>
@@ -1570,60 +1576,77 @@
         <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/docs/System Requirements.xlsx
+++ b/docs/System Requirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimi\OneDrive\Documents\Courses\Fundamental of SWE\3310 Group project\cse3310_sp24_group_12\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19739d4a924ac107/Documents/University/Spring 2024/Fundamentals of Software Engineering/Project/cse3310_sp24_group_12/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F002E7-4FAF-471C-8DC3-E87D7C8E9975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{B5F002E7-4FAF-471C-8DC3-E87D7C8E9975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BDA480A-F9E1-43DA-90FE-DFECE3D16DAD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>SREQ011</t>
-  </si>
-  <si>
-    <t>The word grid shall be a 50 by 50 grid</t>
   </si>
   <si>
     <t>SREQ012</t>
@@ -459,6 +456,9 @@
   </si>
   <si>
     <t>User unique "Nick" or "Handle" will be &gt; length 2</t>
+  </si>
+  <si>
+    <t>The word grid shall be a 20 by 20 grid</t>
   </si>
 </sst>
 </file>
@@ -862,21 +862,21 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="73" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="135.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="168" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -914,7 +914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -932,7 +932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -952,7 +952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -972,7 +972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -987,10 +987,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -1101,32 +1101,32 @@
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -1136,15 +1136,15 @@
         <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -1154,15 +1154,15 @@
         <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -1175,30 +1175,30 @@
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -1208,15 +1208,15 @@
         <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -1226,15 +1226,15 @@
         <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -1244,15 +1244,15 @@
         <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
@@ -1265,12 +1265,12 @@
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -1283,68 +1283,68 @@
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>12</v>
@@ -1357,142 +1357,142 @@
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
@@ -1505,12 +1505,12 @@
         <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
@@ -1523,12 +1523,12 @@
         <v>13</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>12</v>
@@ -1541,12 +1541,12 @@
         <v>13</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
@@ -1559,12 +1559,12 @@
         <v>13</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>12</v>
@@ -1576,29 +1576,29 @@
         <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>12</v>
@@ -1608,33 +1608,33 @@
         <v>36</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>12</v>
@@ -1646,7 +1646,7 @@
         <v>17</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
